--- a/excel/sp2-0.xlsx
+++ b/excel/sp2-0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinji/mahjong/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E42CB4-34BE-3C4F-B4AB-02ED8294E4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448F717-D058-8441-AB92-C89D0999E798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="640" windowWidth="27500" windowHeight="14880" xr2:uid="{471E31B0-277D-8145-9BDB-7B8B4703BD1B}"/>
+    <workbookView xWindow="1300" yWindow="640" windowWidth="27500" windowHeight="14880" xr2:uid="{471E31B0-277D-8145-9BDB-7B8B4703BD1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>1萬</t>
     <rPh sb="1" eb="2">
@@ -297,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -338,15 +338,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,15 +665,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D57F73-3476-F544-A7DA-5F79E54AD8E3}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -683,8 +686,20 @@
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +712,20 @@
       <c r="D2" s="2">
         <v>0.198085221122555</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.128691889982781</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.82812499999997602</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.22276565661956499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,8 +738,20 @@
       <c r="D3" s="2">
         <v>0.24155324482485999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.167565087739419</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.82870107770843504</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.278763594705846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -725,8 +764,20 @@
       <c r="D4" s="2">
         <v>0.25209350112949502</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.18014242266894001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.796360059026056</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.29382051356598898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,8 +790,20 @@
       <c r="D5" s="2">
         <v>0.28776453414734199</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.20914913749180999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.78564593301434305</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.33035380676700798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +816,20 @@
       <c r="D6" s="2">
         <v>0.29953401674552899</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.231423149905122</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.77760775312419295</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.35669162373628999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +842,20 @@
       <c r="D7" s="2">
         <v>0.29165340447055499</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.21240799158780099</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.79398210897261001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.33515461849803302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -781,8 +868,20 @@
       <c r="D8" s="2">
         <v>0.240161951291091</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.16824243279474899</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.81326739427010797</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.27880736623876501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,8 +894,20 @@
       <c r="D9" s="2">
         <v>0.23469330487493401</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.15588476140847099</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.82914274401107002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.26243067954850402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -809,8 +920,20 @@
       <c r="D10" s="2">
         <v>0.189172749372268</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.130618583383659</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.843219159008609</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.22619803531087601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -823,8 +946,20 @@
       <c r="D11" s="2">
         <v>0.19312127610622901</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.12582449695249101</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.84331281477333897</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.21897704153509001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -837,8 +972,20 @@
       <c r="D12" s="2">
         <v>0.244098205828811</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.16654169462093901</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.81973581973580301</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.27683930852967498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -851,8 +998,20 @@
       <c r="D13" s="2">
         <v>0.24534962318758899</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.17412971517951201</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.79943219772877705</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.28597030971703202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -865,8 +1024,20 @@
       <c r="D14" s="2">
         <v>0.29338059102449998</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.207867583834909</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.794468026838274</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.32951867098799398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -879,8 +1050,20 @@
       <c r="D15" s="2">
         <v>0.30470507675674302</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.21209966822398099</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.80258775301049401</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.335529134499921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -893,8 +1076,20 @@
       <c r="D16" s="2">
         <v>0.28519694294584003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.210633145787336</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.79470643557704101</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.33300492607524801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -907,8 +1102,20 @@
       <c r="D17" s="2">
         <v>0.24669742911026199</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.180673911343913</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.78645567466392996</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.29384277946038001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,8 +1128,20 @@
       <c r="D18" s="2">
         <v>0.240494269109122</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.16713283878551899</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.81129476584020399</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.277167154016912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1154,20 @@
       <c r="D19" s="2">
         <v>0.19679210361852001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.12789775231379399</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.82490051165432499</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.22145909643585099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -949,8 +1180,20 @@
       <c r="D20" s="2">
         <v>0.197710996565757</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.12645281264527999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.84855360181506301</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.22010519731438599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -963,8 +1206,20 @@
       <c r="D21" s="2">
         <v>0.24331652135892801</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.161239776809599</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.82839191046532801</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.26993825775447999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1232,20 @@
       <c r="D22" s="2">
         <v>0.25501110529537202</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.16680814940577099</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.805465414175904</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.27637940630673202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -991,8 +1258,20 @@
       <c r="D23" s="2">
         <v>0.30286670622569201</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.201202542518466</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.81074345839677597</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.322395947997207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1005,8 +1284,20 @@
       <c r="D24" s="2">
         <v>0.30299891483553099</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.22351808656373701</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.78300907911801798</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.34776347241569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1019,8 +1310,20 @@
       <c r="D25" s="2">
         <v>0.29306793077363402</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.205897444668695</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.82103396535260098</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.32923093750212501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1033,8 +1336,20 @@
       <c r="D26" s="2">
         <v>0.25313269784195402</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.17896486413358501</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.77985514569646597</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.29112173035192901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1047,8 +1362,20 @@
       <c r="D27" s="2">
         <v>0.241987318658059</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.16339177158096899</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.81702294567560596</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.27232317947280998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1061,8 +1388,20 @@
       <c r="D28" s="2">
         <v>0.188856414382614</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.128484432627154</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.85210466439132904</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.223298800007039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1075,8 +1414,20 @@
       <c r="D29" s="2">
         <v>6.9715540748130897E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.7877345921047398E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.86371527777770196</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7.2572116253209695E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1089,8 +1440,20 @@
       <c r="D30" s="2">
         <v>7.4751616455400696E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.4684240921289397E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.86452159187122202</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6.6692795080439501E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1103,8 +1466,20 @@
       <c r="D31" s="2">
         <v>5.7636122171596797E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.23466585291423E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.85656565656557004</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6.2339189877570797E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1117,8 +1492,20 @@
       <c r="D32" s="2">
         <v>6.1725360759835701E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.9894625573943599E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.87608906098732997</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5.7816393017319501E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1131,8 +1518,20 @@
       <c r="D33" s="2">
         <v>7.3243883180756794E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.9890749658592503E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.85318985395842695</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7.6217942107027994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1145,8 +1544,20 @@
       <c r="D34" s="2">
         <v>7.3765461994961201E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.0910578566493098E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.86206896551717505</v>
+      </c>
+      <c r="H34" s="3">
+        <v>7.8114150803735904E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1158,6 +1569,18 @@
       </c>
       <c r="D35" s="2">
         <v>7.6850311502900698E-2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.3532954675408603E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.85479041916161203</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8.2846675604691195E-2</v>
       </c>
     </row>
   </sheetData>
